--- a/Current_Workspace/3UAV.xlsx
+++ b/Current_Workspace/3UAV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan.c.larson\Documents\GitHub\SMART_UAV_disaster_algorithm_1\Current_Workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DB1227-0A8C-4AF0-AB69-CAA230FD5002}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3508F587-1884-4130-8172-B50102026CF8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848" activeTab="2" xr2:uid="{F1FBB97D-3C61-4F5D-A997-F90B90E4DFB4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7848" activeTab="1" xr2:uid="{F1FBB97D-3C61-4F5D-A997-F90B90E4DFB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="1411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="1412">
   <si>
     <t>Completed</t>
   </si>
@@ -4260,6 +4260,9 @@
   </si>
   <si>
     <t>Simulation 100 Zone 13</t>
+  </si>
+  <si>
+    <t>Comp/UAV</t>
   </si>
 </sst>
 </file>
@@ -4623,10 +4626,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76FED42-F520-47CE-8867-2C3273AE3659}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A101"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8161,6 +8164,107 @@
       </c>
       <c r="K101">
         <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <f>AVERAGE(B2:B101)</f>
+        <v>96.87</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ref="C102:K102" si="0">AVERAGE(C2:C101)</f>
+        <v>23.04</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="0"/>
+        <v>1.5569285672725761</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="0"/>
+        <v>0.55780888931318062</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="0"/>
+        <v>1.7187126292045101</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="0"/>
+        <v>62.37</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="0"/>
+        <v>39.25</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="0"/>
+        <v>101.62</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="0"/>
+        <v>741.76</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="0"/>
+        <v>40.92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <f>_xlfn.STDEV.P(B2:B101)</f>
+        <v>4.1028161060422885</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ref="C103:K103" si="1">_xlfn.STDEV.P(C2:C101)</f>
+        <v>8.2703325205217713</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>0.16284179619902905</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>8.9379983166905194E-2</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>0.172211496423855</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="1"/>
+        <v>2.1663563880396048</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="1"/>
+        <v>3.5954832776693593</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="1"/>
+        <v>4.5886381421942559</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="1"/>
+        <v>22.325375696726809</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="1"/>
+        <v>7.8951630762131817</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <f>B102/3</f>
+        <v>32.29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <f>B103/3</f>
+        <v>1.3676053686807628</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +8276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91BCF03-61EB-4D8E-BF58-7BFA8C89DC06}">
   <dimension ref="A1:F1301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A1301"/>
     </sheetView>
   </sheetViews>
